--- a/figures/第五章实验结果.xlsx
+++ b/figures/第五章实验结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuzhuo/Desktop/毕业设计/SJTU-lz/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B0048-F99F-5645-8CAC-7CBF57BB5F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289549AA-4248-BD4B-8A04-B577804F670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{E92958F2-AD44-FE4E-B53E-C21ED9F87299}"/>
   </bookViews>
@@ -36,15 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="58">
-  <si>
-    <t>去重率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞吐量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
   <si>
     <t>dataset+checkpoints</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,46 +122,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去重率随占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去重率随大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zipnn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一下为非归一化值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鉴别准确率</t>
-  </si>
-  <si>
-    <t>文件级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比特级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>误报率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漏检率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,23 +150,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鉴别线程吞吐量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fhrd-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压缩线程吞吐量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非模型文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,12 +196,232 @@
   <si>
     <t>destor</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去重率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吞吐量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去重率随占比</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一下为非归一化值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去重率随大小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鉴别准确率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比特级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>误报率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏检率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鉴别线程吞吐量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩线程吞吐量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非模型文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吞吐量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,11 +439,34 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,17 +491,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16507,2034 +16690,2036 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E609CDC4-065B-E94F-9B72-7398D3417878}">
   <dimension ref="A1:Q184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C171" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
         <v>1.2509999999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.714</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.2050000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1.071</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.153</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.83</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.446</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1.1040000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>1.153</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.83</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.446</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1.1040000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>1.4390000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1.8560000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1.389</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1.1859999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
         <v>1.464</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.714</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.4730000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1.071</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
         <v>1.032</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1.706</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1.466</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1.004</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.423</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1.716</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1.381</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1.0760000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
         <v>1.484</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.726</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1.4379999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1.085</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>1.6990000000000001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2.0259999999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1.6539999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1.202</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
         <v>316.33999999999997</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>283.38</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>312.08999999999997</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>322.94</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
         <v>300.16000000000003</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>222.65</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>299.33</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>289.63</v>
       </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17">
+      <c r="M17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
         <v>346.34</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>283.38</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>342.09</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>352.94</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
         <v>290.47000000000003</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>207.81</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>299.32</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>284.63</v>
       </c>
-      <c r="M18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18">
+      <c r="M18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="1">
         <v>300.16000000000003</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>222.65</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>299.33</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>284.63</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
         <v>264.85000000000002</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>207.81</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>261.22000000000003</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>275.11</v>
       </c>
-      <c r="M19" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19">
+      <c r="M19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
         <v>290.47000000000003</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>207.81</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>299.32</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>284.63</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
         <v>277.07</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>223.54</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>280.51</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>321.18</v>
       </c>
-      <c r="M20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20">
+      <c r="M20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1">
         <v>264.85000000000002</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>207.81</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>261.22000000000003</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>245.11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
         <v>290.22000000000003</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>226.33</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>293.2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>281.14999999999998</v>
       </c>
-      <c r="M21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21">
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1">
         <v>277.07</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>263.54000000000002</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>280.51</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>321.18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
         <v>290.47000000000003</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>233.36</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>305.69</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>309.37</v>
       </c>
-      <c r="M22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22">
+      <c r="M22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1">
         <v>450.22</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>346.33</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>293.2</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>441.15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
         <v>60.44</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>58.82</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>60.12</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>62.14</v>
       </c>
-      <c r="M23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23">
+      <c r="M23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="1">
         <v>290.47000000000003</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>283.36</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>305.69</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>339.37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
         <v>266.98</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>217.81</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>261.74</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>285.10000000000002</v>
       </c>
-      <c r="M24" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24">
+      <c r="M24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="1">
         <v>60.44</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>58.82</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <v>60.12</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>62.14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="M25" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25">
+      <c r="M25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="1">
         <v>236.98</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>207.81</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>231.74</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>245.1</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>25</v>
+    <row r="30" spans="1:17" ht="16">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="B31">
+      <c r="B31" s="1">
         <v>0</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>0.25</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>0.5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>0.75</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
         <v>1.5229999999999999</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1.3440000000000001</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1.2050000000000001</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>1.0920000000000001</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
         <v>1.522</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>1.4359999999999999</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1.446</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>1.3759999999999999</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>1.28</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
         <v>1.522</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>1.4359999999999999</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>1.446</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>1.3759999999999999</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>1.28</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1">
         <v>1.522</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>1.4370000000000001</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>1.4490000000000001</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>1.381</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>1.28</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
         <v>1.5229999999999999</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>1.4330000000000001</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1.4730000000000001</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>1.379</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>1.2809999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1">
         <v>2.1850000000000001</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>1.5009999999999999</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>1.3660000000000001</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>1.145</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1">
         <v>2.2559999999999998</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>1.51</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1.381</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>1.157</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
         <v>2.294</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1.897</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>1.6539999999999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>1.4379999999999999</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>1.2809999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>25</v>
+    <row r="52" spans="1:6" ht="16">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="B53">
+      <c r="B53" s="1">
         <v>0</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>0.25</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>0.5</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>0.75</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="1">
         <v>1.5229999999999999</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>1.3440000000000001</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>1.2050000000000001</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>1.0920000000000001</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
         <v>1.665</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>1.4359999999999999</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>1.446</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>1.3759999999999999</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>1.28</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
         <v>1.665</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>1.4359999999999999</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>1.446</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>1.3759999999999999</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>1.28</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
         <v>1.522</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>1.3660000000000001</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>1.389</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>1.331</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>1.28</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1">
         <v>1.5229999999999999</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>1.5229999999999999</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>1.4730000000000001</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>1.379</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>1.2809999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1">
         <v>2.7850000000000001</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>1.611</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>1.466</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>1.1850000000000001</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1">
         <v>2.2559999999999998</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>1.51</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>1.381</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>1.157</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61">
+      <c r="A61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="1">
         <v>2.294</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>1.897</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>1.6539999999999999</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>1.4379999999999999</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>28</v>
+    <row r="68" spans="1:6" ht="16">
+      <c r="A68" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>26</v>
+    <row r="69" spans="1:6" ht="16">
+      <c r="A69" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1">
         <v>1.5389999999999999</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>1.4570000000000001</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>1.337</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>1.2050000000000001</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>1.0980000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1">
         <v>1.72</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>1.665</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>1.5429999999999999</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>1.389</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>1.26</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18" customHeight="1">
-      <c r="A74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
         <v>1.569</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>1.5289999999999999</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>1.4690000000000001</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>1.381</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>1.2729999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1">
         <v>1.778</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>1.7749999999999999</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>1.7450000000000001</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>1.6539999999999999</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>1.52</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>29</v>
+    <row r="78" spans="1:6" ht="16">
+      <c r="A78" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>33</v>
+    <row r="80" spans="1:6" ht="16">
+      <c r="A80" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="B81" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E81" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
+      <c r="B81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="82" spans="1:7" ht="16">
+      <c r="A82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="3">
         <v>0.98950000000000005</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="3">
         <v>0.29039999999999999</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="3">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="2">
+    <row r="83" spans="1:7" ht="16">
+      <c r="A83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="3">
         <v>0.99070000000000003</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <v>1</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>0.99890000000000001</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="3">
         <v>0.98099999999999998</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="3">
         <v>0.99660000000000004</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="3">
         <v>0.99050000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="84" spans="1:7" ht="16">
+      <c r="A84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="3">
         <v>0.99050000000000005</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <v>1</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>0.99890000000000001</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <v>0.98089999999999999</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <v>0.99660000000000004</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="3">
         <v>0.99039999999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>34</v>
+    <row r="88" spans="1:7" ht="16">
+      <c r="A88" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="B89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" t="s">
-        <v>37</v>
+      <c r="B89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="2">
+    <row r="90" spans="1:7" ht="16">
+      <c r="A90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="3">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="3">
         <v>0.97570000000000001</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>0.99890000000000001</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>0</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="91" spans="1:7" ht="16">
+      <c r="A91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" s="3">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>0</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>0</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="92" spans="1:7" ht="16">
+      <c r="A92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>0</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>0</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="3">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>35</v>
+    <row r="94" spans="1:7" ht="16">
+      <c r="A94" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="B95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" t="s">
-        <v>41</v>
-      </c>
-      <c r="D95" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" t="s">
-        <v>37</v>
+      <c r="B95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>30</v>
-      </c>
-      <c r="B96">
+    <row r="96" spans="1:7" ht="16">
+      <c r="A96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="1">
         <v>0</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>0</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>0</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>0.98089999999999999</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="3">
         <v>0.70960000000000001</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="2">
         <v>0.99039999999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B97">
+    <row r="97" spans="1:7" ht="16">
+      <c r="A97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="1">
         <v>0</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>0</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>1E-3</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98">
+    <row r="98" spans="1:7" ht="16">
+      <c r="A98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="1">
         <v>0</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>0</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>1E-3</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>42</v>
+    <row r="100" spans="1:7" ht="16">
+      <c r="A100" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="B101" t="s">
-        <v>40</v>
-      </c>
-      <c r="C101" t="s">
-        <v>41</v>
-      </c>
-      <c r="D101" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" t="s">
-        <v>37</v>
+      <c r="B101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102">
+    <row r="102" spans="1:7" ht="16">
+      <c r="A102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="1">
         <v>153.12</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>167.11</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>210.46</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <v>150.99</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>123.31</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="1">
         <v>198.2</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103">
+    <row r="103" spans="1:7" ht="16">
+      <c r="A103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="1">
         <v>269.35000000000002</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>298.27</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>348.12</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <v>265.76</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>206.3</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1">
         <v>306</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
-        <v>43</v>
+    <row r="115" spans="1:7" ht="16">
+      <c r="A115" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="B117" t="s">
-        <v>40</v>
-      </c>
-      <c r="C117" t="s">
-        <v>38</v>
-      </c>
-      <c r="D117" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" t="s">
-        <v>39</v>
+      <c r="B117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118">
+      <c r="A118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="1">
         <v>1</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>1</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>1.018</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="1">
         <v>1</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="1">
         <v>1.046</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="1">
         <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119">
+      <c r="A119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="1">
         <v>1.204</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>1.19</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>1.171</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <v>1.204</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
         <v>1.0489999999999999</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1">
         <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>44</v>
-      </c>
-      <c r="B120">
+      <c r="A120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="1">
         <v>1.2050000000000001</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>1.19</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>1.1779999999999999</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="1">
         <v>1.2050000000000001</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
         <v>1.0509999999999999</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1">
         <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>22</v>
-      </c>
-      <c r="B121">
+      <c r="A121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" s="1">
         <v>1.206</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>1.19</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>1.179</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="1">
         <v>1.2070000000000001</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
         <v>1.052</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
-        <v>45</v>
+    <row r="123" spans="1:7" ht="16">
+      <c r="A123" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="B125" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125" t="s">
-        <v>38</v>
-      </c>
-      <c r="D125" t="s">
-        <v>36</v>
-      </c>
-      <c r="E125" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" t="s">
-        <v>39</v>
+      <c r="B125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" t="s">
-        <v>20</v>
-      </c>
-      <c r="B126">
+      <c r="A126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="1">
         <v>400.12</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>399.98</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>413.5</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>406.72</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>386.68</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <v>396.78</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127">
+      <c r="A127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="1">
         <v>324.36</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>321.14999999999998</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>350.26</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>332.41</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>391.67</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <v>390.66</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128">
+      <c r="A128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="1">
         <v>332.52</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>342.8</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>355.61</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>352.12</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>377.73</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>389.93</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" t="s">
-        <v>22</v>
-      </c>
-      <c r="B129">
+      <c r="A129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="1">
         <v>614.63</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>602.1</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>601.91999999999996</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>621.29999999999995</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>392.01</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>399.91</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>46</v>
+    <row r="149" spans="1:8" ht="16">
+      <c r="A149" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>0</v>
+    <row r="150" spans="1:8" ht="16">
+      <c r="A150" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="B151" t="s">
-        <v>47</v>
-      </c>
-      <c r="C151" t="s">
-        <v>48</v>
-      </c>
-      <c r="D151" t="s">
-        <v>49</v>
-      </c>
-      <c r="E151" t="s">
-        <v>53</v>
-      </c>
-      <c r="F151" t="s">
-        <v>50</v>
-      </c>
-      <c r="G151" t="s">
-        <v>51</v>
-      </c>
-      <c r="H151" t="s">
-        <v>52</v>
+      <c r="B151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152">
+      <c r="A152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="1">
         <v>1.635</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>1.337</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>11.933</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="1">
         <v>8.3539999999999992</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="1">
         <v>4.3550000000000004</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="1">
         <v>5.0330000000000004</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="1">
         <v>1.004</v>
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B153">
+      <c r="A153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="1">
         <v>2.3530000000000002</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>1.349</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>12.164999999999999</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="1">
         <v>8.4890000000000008</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="1">
         <v>4.9480000000000004</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="1">
         <v>5.0330000000000004</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="1">
         <v>1.004</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B154">
+      <c r="A154" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" s="1">
         <v>2.4380000000000002</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>1.367</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>13.106</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="1">
         <v>10.183</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="1">
         <v>5.5369999999999999</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="1">
         <v>5.0430000000000001</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="1">
         <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B155">
+      <c r="A155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="1">
         <v>2.69</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>1.371</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>13.367000000000001</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="1">
         <v>11.19</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="1">
         <v>5.7119999999999997</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="1">
         <v>5.0430000000000001</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="1">
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="3" t="s">
-        <v>1</v>
+    <row r="157" spans="1:8" ht="16">
+      <c r="A157" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>47</v>
-      </c>
-      <c r="C158" t="s">
-        <v>48</v>
-      </c>
-      <c r="D158" t="s">
-        <v>49</v>
-      </c>
-      <c r="E158" t="s">
-        <v>53</v>
-      </c>
-      <c r="F158" t="s">
-        <v>50</v>
-      </c>
-      <c r="G158" t="s">
-        <v>51</v>
-      </c>
-      <c r="H158" t="s">
-        <v>52</v>
+      <c r="B158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B159">
+      <c r="A159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1">
         <v>310.38</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>330.16</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>202.49</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="1">
         <v>146.78</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>273.2</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="1">
         <v>240.01</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="1">
         <v>255.05</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160">
+      <c r="A160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="1">
         <v>253.78</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>330.17</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>202.49</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="1">
         <v>191</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="1">
         <v>208.91</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="1">
         <v>241.01</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="1">
         <v>255.03</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B161">
+      <c r="A161" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" s="1">
         <v>242.79</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>313.64999999999998</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>177.18</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="1">
         <v>125.02</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="1">
         <v>177.58</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="1">
         <v>239.02</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="1">
         <v>254.03</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B162">
+      <c r="A162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="1">
         <v>232.79</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>316.62</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>174.23</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="1">
         <v>124.51</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="1">
         <v>174.24</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="1">
         <v>238.9</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="1">
         <v>252.03</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>54</v>
+      <c r="A171" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="B173" t="s">
-        <v>47</v>
-      </c>
-      <c r="C173" t="s">
-        <v>48</v>
-      </c>
-      <c r="D173" t="s">
-        <v>49</v>
-      </c>
-      <c r="E173" t="s">
-        <v>53</v>
-      </c>
-      <c r="F173" t="s">
-        <v>50</v>
+      <c r="B173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B174">
+      <c r="A174" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="1">
         <v>0.50600000000000001</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="1">
         <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B175">
+      <c r="A175" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" s="1">
         <v>0.51200000000000001</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="1">
         <v>0.18</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="1">
         <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B176">
+      <c r="A176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="1">
         <v>0.55200000000000005</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>0.187</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="1">
         <v>0.36</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="1">
         <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" t="s">
-        <v>55</v>
+      <c r="A180" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="B181" t="s">
-        <v>47</v>
-      </c>
-      <c r="C181" t="s">
-        <v>48</v>
-      </c>
-      <c r="D181" t="s">
-        <v>49</v>
-      </c>
-      <c r="E181" t="s">
-        <v>53</v>
-      </c>
-      <c r="F181" t="s">
-        <v>50</v>
+      <c r="B181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B182">
+      <c r="A182" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="1">
         <v>0.59499999999999997</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="1">
         <v>0.51</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="1">
         <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B183">
+      <c r="A183" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183" s="1">
         <v>0.59099999999999997</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>0.501</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="1">
         <v>0.51100000000000001</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="1">
         <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B184">
+      <c r="A184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="1">
         <v>0.59</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="1">
         <v>0.53100000000000003</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="1">
         <v>0.52400000000000002</v>
       </c>
     </row>

--- a/figures/第五章实验结果.xlsx
+++ b/figures/第五章实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuzhuo/Desktop/毕业设计/SJTU-lz/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289549AA-4248-BD4B-8A04-B577804F670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268C076E-3FFA-BB4A-A208-A9E8726F24C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{E92958F2-AD44-FE4E-B53E-C21ED9F87299}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="16000" xr2:uid="{E92958F2-AD44-FE4E-B53E-C21ED9F87299}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
   <si>
     <t>dataset+checkpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code+no-nomal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,6 +412,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>code+no-normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -637,7 +637,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -761,7 +761,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -885,7 +885,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -1009,7 +1009,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -1133,7 +1133,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -1257,7 +1257,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -1411,7 +1411,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -1535,7 +1535,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -1650,7 +1650,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -5446,7 +5446,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -5570,7 +5570,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -5694,7 +5694,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -5818,7 +5818,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -5942,7 +5942,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -6066,7 +6066,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -6220,7 +6220,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -6344,7 +6344,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -6459,7 +6459,7 @@
                   <c:v>backup+checkpoints</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>code+no-nomal</c:v>
+                  <c:v>code+no-normal</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>dataset+checkpoints</c:v>
@@ -16690,8 +16690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E609CDC4-065B-E94F-9B72-7398D3417878}">
   <dimension ref="A1:Q184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16708,24 +16708,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>1.2509999999999999</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1.153</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>1.153</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1.4390000000000001</v>
@@ -16793,7 +16793,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1.464</v>
@@ -16810,7 +16810,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1.032</v>
@@ -16827,7 +16827,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1.423</v>
@@ -16844,7 +16844,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1.484</v>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>1.6990000000000001</v>
@@ -16878,24 +16878,24 @@
     </row>
     <row r="15" spans="1:5" ht="16">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>316.33999999999997</v>
@@ -16912,7 +16912,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>300.16000000000003</v>
@@ -16927,7 +16927,7 @@
         <v>289.63</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17" s="1">
         <v>346.34</v>
@@ -16944,7 +16944,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>290.47000000000003</v>
@@ -16959,7 +16959,7 @@
         <v>284.63</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="1">
         <v>300.16000000000003</v>
@@ -16976,7 +16976,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>264.85000000000002</v>
@@ -16991,7 +16991,7 @@
         <v>275.11</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" s="1">
         <v>290.47000000000003</v>
@@ -17008,7 +17008,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>277.07</v>
@@ -17023,7 +17023,7 @@
         <v>321.18</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20" s="1">
         <v>264.85000000000002</v>
@@ -17040,7 +17040,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>290.22000000000003</v>
@@ -17055,7 +17055,7 @@
         <v>281.14999999999998</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N21" s="1">
         <v>277.07</v>
@@ -17072,7 +17072,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>290.47000000000003</v>
@@ -17087,7 +17087,7 @@
         <v>309.37</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N22" s="1">
         <v>450.22</v>
@@ -17104,7 +17104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>60.44</v>
@@ -17119,7 +17119,7 @@
         <v>62.14</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N23" s="1">
         <v>290.47000000000003</v>
@@ -17136,7 +17136,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
         <v>266.98</v>
@@ -17151,7 +17151,7 @@
         <v>285.10000000000002</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N24" s="1">
         <v>60.44</v>
@@ -17168,7 +17168,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="M25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N25" s="1">
         <v>236.98</v>
@@ -17185,7 +17185,7 @@
     </row>
     <row r="30" spans="1:17" ht="16">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -17207,7 +17207,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1">
         <v>1.5229999999999999</v>
@@ -17227,7 +17227,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1">
         <v>1.522</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1">
         <v>1.522</v>
@@ -17267,7 +17267,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
         <v>1.522</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1">
         <v>1.5229999999999999</v>
@@ -17307,7 +17307,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1">
         <v>2.1850000000000001</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1">
         <v>2.2559999999999998</v>
@@ -17347,7 +17347,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1">
         <v>2.294</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="52" spans="1:6" ht="16">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -17413,7 +17413,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1">
         <v>1.5229999999999999</v>
@@ -17433,7 +17433,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1">
         <v>1.665</v>
@@ -17453,7 +17453,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1">
         <v>1.665</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="1">
         <v>1.522</v>
@@ -17493,7 +17493,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="1">
         <v>1.5229999999999999</v>
@@ -17513,7 +17513,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
         <v>2.7850000000000001</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1">
         <v>2.2559999999999998</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1">
         <v>2.294</v>
@@ -17573,34 +17573,34 @@
     </row>
     <row r="68" spans="1:6" ht="16">
       <c r="A68" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16">
       <c r="A69" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1">
         <v>1.5389999999999999</v>
@@ -17620,7 +17620,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" s="1">
         <v>1.1599999999999999</v>
@@ -17640,7 +17640,7 @@
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" s="1">
         <v>1.72</v>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="74" spans="1:6" ht="18" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
         <v>1.569</v>
@@ -17680,7 +17680,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="1">
         <v>1.778</v>
@@ -17700,37 +17700,37 @@
     </row>
     <row r="78" spans="1:6" ht="16">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" s="3">
         <v>0.98950000000000005</v>
@@ -17753,7 +17753,7 @@
     </row>
     <row r="83" spans="1:7" ht="16">
       <c r="A83" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B83" s="3">
         <v>0.99070000000000003</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="84" spans="1:7" ht="16">
       <c r="A84" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B84" s="3">
         <v>0.99050000000000005</v>
@@ -17799,32 +17799,32 @@
     </row>
     <row r="88" spans="1:7" ht="16">
       <c r="A88" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16">
       <c r="A90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="3">
         <v>1.0500000000000001E-2</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="91" spans="1:7" ht="16">
       <c r="A91" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="3">
         <v>9.2999999999999992E-3</v>
@@ -17870,7 +17870,7 @@
     </row>
     <row r="92" spans="1:7" ht="16">
       <c r="A92" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="3">
         <v>9.4999999999999998E-3</v>
@@ -17893,32 +17893,32 @@
     </row>
     <row r="94" spans="1:7" ht="16">
       <c r="A94" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16">
       <c r="A96" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="97" spans="1:7" ht="16">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -17964,7 +17964,7 @@
     </row>
     <row r="98" spans="1:7" ht="16">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -17987,32 +17987,32 @@
     </row>
     <row r="100" spans="1:7" ht="16">
       <c r="A100" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D101" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102" s="1">
         <v>153.12</v>
@@ -18035,7 +18035,7 @@
     </row>
     <row r="103" spans="1:7" ht="16">
       <c r="A103" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B103" s="1">
         <v>269.35000000000002</v>
@@ -18058,32 +18058,32 @@
     </row>
     <row r="115" spans="1:7" ht="16">
       <c r="A115" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="B117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -18106,7 +18106,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B119" s="1">
         <v>1.204</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B120" s="1">
         <v>1.2050000000000001</v>
@@ -18152,7 +18152,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B121" s="1">
         <v>1.206</v>
@@ -18175,32 +18175,32 @@
     </row>
     <row r="123" spans="1:7" ht="16">
       <c r="A123" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="B125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B126" s="1">
         <v>400.12</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B127" s="1">
         <v>324.36</v>
@@ -18246,7 +18246,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" s="1">
         <v>332.52</v>
@@ -18269,7 +18269,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B129" s="1">
         <v>614.63</v>
@@ -18292,40 +18292,40 @@
     </row>
     <row r="149" spans="1:8" ht="16">
       <c r="A149" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16">
       <c r="A150" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B152" s="1">
         <v>1.635</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B153" s="1">
         <v>2.3530000000000002</v>
@@ -18377,7 +18377,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B154" s="1">
         <v>2.4380000000000002</v>
@@ -18403,7 +18403,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B155" s="1">
         <v>2.69</v>
@@ -18429,35 +18429,35 @@
     </row>
     <row r="157" spans="1:8" ht="16">
       <c r="A157" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B159" s="1">
         <v>310.38</v>
@@ -18483,7 +18483,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B160" s="1">
         <v>253.78</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B161" s="1">
         <v>242.79</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162" s="1">
         <v>232.79</v>
@@ -18561,29 +18561,29 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B174" s="1">
         <v>0.50600000000000001</v>
@@ -18603,7 +18603,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B175" s="1">
         <v>0.51200000000000001</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B176" s="1">
         <v>0.55200000000000005</v>
@@ -18643,29 +18643,29 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="B181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B182" s="1">
         <v>0.59499999999999997</v>
@@ -18685,7 +18685,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B183" s="1">
         <v>0.59099999999999997</v>
@@ -18705,7 +18705,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B184" s="1">
         <v>0.59</v>
